--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eleme\Desktop\bird-feeder\hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eleme\Desktop\bird-feeder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD12CF2-BBD7-4BA9-A79A-503BE764C722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710B8DB1-32C4-468A-B4C7-82667A75F4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9792AD92-2148-495F-8A5E-14B3B3F658DD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>Headers 2.54 mm female x8</t>
   </si>
@@ -59,12 +59,6 @@
     <t>Discription</t>
   </si>
   <si>
-    <t>MC34063A</t>
-  </si>
-  <si>
-    <t>5 V buck-boost for powering peryferia by 5 V</t>
-  </si>
-  <si>
     <t>Dioda Schottky SS34</t>
   </si>
   <si>
@@ -83,18 +77,9 @@
     <t>C_out 2200 µF 6.3 V low-ESR (backup)</t>
   </si>
   <si>
-    <t>MC34063 inductor 100 µH, Isat ≥ 3 A</t>
-  </si>
-  <si>
     <t>C_in 470 µF 6.3 V low-ESR</t>
   </si>
   <si>
-    <t>MLCC 0.1 µF</t>
-  </si>
-  <si>
-    <t>MLCC 1 µF / 10 µF X7R</t>
-  </si>
-  <si>
     <t>Resistors 10k</t>
   </si>
   <si>
@@ -107,12 +92,6 @@
     <t>Resistor 330 Ohm for LED</t>
   </si>
   <si>
-    <t>MOSFET for switching MC34063A</t>
-  </si>
-  <si>
-    <t>P-MOSFET high-side</t>
-  </si>
-  <si>
     <t>IRLML2502 (N-MOSFET SOT-23)</t>
   </si>
   <si>
@@ -137,18 +116,6 @@
     <t>Ultrasonic sensor HC-SR04</t>
   </si>
   <si>
-    <t>R_sc 0.22 Ohm</t>
-  </si>
-  <si>
-    <t>180 Ohm</t>
-  </si>
-  <si>
-    <t>1 k Ohm</t>
-  </si>
-  <si>
-    <t>3 k Ohm</t>
-  </si>
-  <si>
     <t>SS34 (3A) diode</t>
   </si>
   <si>
@@ -194,9 +161,6 @@
     <t>https://www.tme.eu/pl/details/ss34-ons/diody-schottky-smd/onsemi/ss34/</t>
   </si>
   <si>
-    <t>https://www.tme.eu/pl/details/mc34063abd-tr/regulatory-napiecia-uklady-dc-dc/stmicroelectronics/</t>
-  </si>
-  <si>
     <t>3.3 V stabilization</t>
   </si>
   <si>
@@ -216,6 +180,36 @@
   </si>
   <si>
     <t>https://www.tme.eu/pl/details/ls-r976/diody-led-smd-kolorowe/ams-osram/ls-r976/</t>
+  </si>
+  <si>
+    <t>Inductor 15 µH</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/irlml2502trpbf/tranzystory-z-kanalem-n-smd/infineon-technologies/?brutto=1&amp;currency=PLN&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=P%C3%B3%C5%82przewodniki%20PL%20%5BPLA%5D%20CSS&amp;gad_source=1&amp;gad_campaignid=9724292820&amp;gclid=Cj0KCQjwsPzHBhDCARIsALlWNG0Zo0enrMTCyculJqugfw94s-LIOFKiRaJuKqR16wsWP9d_BY8dYRkaAo0iEALw_wcB</t>
+  </si>
+  <si>
+    <t>IRLML2502TRPBF</t>
+  </si>
+  <si>
+    <t>n-MOSFET</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/lmc555cmx_nopb/uklady-watchdog-i-reset/texas-instruments/</t>
+  </si>
+  <si>
+    <t>LMC555CMX/NOPB</t>
+  </si>
+  <si>
+    <t>PWM gen</t>
+  </si>
+  <si>
+    <t>IN4148</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/1n4148w-dio/diody-uniwersalne-smd/diotec-semiconductor/1n4148w/?brutto=1&amp;currency=PLN&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=P%C3%B3%C5%82przewodniki%20PL%20%5BPLA%5D%20CSS&amp;gad_source=1&amp;gad_campaignid=9724292820&amp;gclid=Cj0KCQjwsPzHBhDCARIsALlWNG3yhQ0FeubGMLkuLetwYBBSzCXVcdlizTG5CVLOnM1-QESgNjiGFc0aAnhHEALw_wcB</t>
+  </si>
+  <si>
+    <t>Headers 2.54 mm female x2</t>
   </si>
 </sst>
 </file>
@@ -601,7 +595,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,13 +612,13 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -638,182 +632,167 @@
         <v>3.46</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>2.84</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" t="s">
-        <v>49</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>11.5</v>
+        <v>2.84</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>6.3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" t="s">
-        <v>49</v>
+        <v>11.5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>31.9</v>
+        <v>6.3</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>31.9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>34.9</v>
       </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="E9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>1.66</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>0.73</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.73</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -821,108 +800,108 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
+      <c r="G25" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
-        <v>49</v>
+      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -930,7 +909,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -938,18 +917,18 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C36">
         <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -958,15 +937,15 @@
         <v>0.15</v>
       </c>
       <c r="E37" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G37" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -975,15 +954,15 @@
         <v>1.49</v>
       </c>
       <c r="E40" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G40" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -991,7 +970,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -999,10 +978,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1010,7 +989,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1018,7 +997,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1026,7 +1005,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1034,9 +1013,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{7303660E-BD24-43D0-BC42-0AB8BE5C441E}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{71A4A7C8-E499-4AAF-A2C4-669A0DE833EF}"/>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{7303660E-BD24-43D0-BC42-0AB8BE5C441E}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{71A4A7C8-E499-4AAF-A2C4-669A0DE833EF}"/>
     <hyperlink ref="E23" r:id="rId3" xr:uid="{7FC37438-4FF9-4091-8DEB-4387DD3AA4F8}"/>
+    <hyperlink ref="E14" r:id="rId4" xr:uid="{905A3EC9-7D7C-4043-9859-73BFE1DF909B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eleme\Desktop\bird-feeder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710B8DB1-32C4-468A-B4C7-82667A75F4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CE7D76-9A2E-4498-9402-43220F9FE42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9792AD92-2148-495F-8A5E-14B3B3F658DD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>Headers 2.54 mm female x8</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Resistor 330 Ohm for LED</t>
   </si>
   <si>
-    <t>IRLML2502 (N-MOSFET SOT-23)</t>
-  </si>
-  <si>
     <t>Gate resistor 100 Ohm</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>Ultrasonic sensor HC-SR04</t>
   </si>
   <si>
-    <t>SS34 (3A) diode</t>
-  </si>
-  <si>
     <t>C_out 4700 µF 6.3 V low-ESR (electrolytic/tantal) for 5V output</t>
   </si>
   <si>
@@ -176,9 +170,6 @@
     <t>https://www.tme.eu/pl/details/eeufc0j471/kondensatory-elektrolityczne-tht/panasonic/</t>
   </si>
   <si>
-    <t>https://www.tme.eu/pl/details/irlml2502trpbf/tranzystory-z-kanalem-n-smd/infineon-technologies/</t>
-  </si>
-  <si>
     <t>https://www.tme.eu/pl/details/ls-r976/diody-led-smd-kolorowe/ams-osram/ls-r976/</t>
   </si>
   <si>
@@ -194,22 +185,22 @@
     <t>n-MOSFET</t>
   </si>
   <si>
-    <t>https://www.tme.eu/pl/details/lmc555cmx_nopb/uklady-watchdog-i-reset/texas-instruments/</t>
-  </si>
-  <si>
-    <t>LMC555CMX/NOPB</t>
-  </si>
-  <si>
     <t>PWM gen</t>
   </si>
   <si>
-    <t>IN4148</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/pl/details/1n4148w-dio/diody-uniwersalne-smd/diotec-semiconductor/1n4148w/?brutto=1&amp;currency=PLN&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=P%C3%B3%C5%82przewodniki%20PL%20%5BPLA%5D%20CSS&amp;gad_source=1&amp;gad_campaignid=9724292820&amp;gclid=Cj0KCQjwsPzHBhDCARIsALlWNG3yhQ0FeubGMLkuLetwYBBSzCXVcdlizTG5CVLOnM1-QESgNjiGFc0aAnhHEALw_wcB</t>
-  </si>
-  <si>
     <t>Headers 2.54 mm female x2</t>
+  </si>
+  <si>
+    <t>NE555</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/1n5818-dio/diody-schottky-tht/diotec-semiconductor/1n5818/</t>
+  </si>
+  <si>
+    <t>1N5818</t>
+  </si>
+  <si>
+    <t>https://botland.com.pl/uklady-scalone-czasowe/187-uniwersalny-uklad-czasowy-ne555-tht-5904422355432.html</t>
   </si>
 </sst>
 </file>
@@ -594,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E553A82-426A-410D-9A9B-3760EFC2D13D}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,13 +603,13 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -632,15 +623,15 @@
         <v>3.46</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -648,10 +639,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -660,7 +651,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -669,15 +660,15 @@
         <v>2.84</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -686,7 +677,7 @@
         <v>11.5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -700,10 +691,10 @@
         <v>6.3</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -717,7 +708,7 @@
         <v>31.9</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -731,12 +722,12 @@
         <v>34.9</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -744,7 +735,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -761,10 +752,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -781,10 +772,10 @@
         <v>0.73</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -792,7 +783,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -800,16 +791,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -820,10 +811,10 @@
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -834,69 +825,64 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E26" t="s">
         <v>54</v>
       </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>52</v>
-      </c>
       <c r="G26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="E28" t="s">
-        <v>56</v>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -923,7 +909,7 @@
         <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -937,32 +923,15 @@
         <v>0.15</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>1.49</v>
-      </c>
-      <c r="E40" t="s">
-        <v>46</v>
-      </c>
-      <c r="G40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -970,7 +939,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -978,10 +947,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -989,7 +958,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -997,7 +966,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1005,7 +974,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1017,6 +986,7 @@
     <hyperlink ref="E5" r:id="rId2" xr:uid="{71A4A7C8-E499-4AAF-A2C4-669A0DE833EF}"/>
     <hyperlink ref="E23" r:id="rId3" xr:uid="{7FC37438-4FF9-4091-8DEB-4387DD3AA4F8}"/>
     <hyperlink ref="E14" r:id="rId4" xr:uid="{905A3EC9-7D7C-4043-9859-73BFE1DF909B}"/>
+    <hyperlink ref="E28" r:id="rId5" xr:uid="{0602BFCF-C2FF-4B14-A801-6A6FDA7B3B05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
